--- a/balancing.xlsx
+++ b/balancing.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
